--- a/Lectures/Lecture 7/Investment-1.xlsx
+++ b/Lectures/Lecture 7/Investment-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianaoc/Documents/Courses/STOR 305/Fall 2019/Excel spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E879BFB3-A1F7-3A4A-A22C-5A9FB4731C10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1290ED-93F4-4A05-BCA9-254873B8A089}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="540" windowWidth="27640" windowHeight="16540" activeTab="1" xr2:uid="{16D05524-453C-E142-B208-76551890EC3D}"/>
+    <workbookView minimized="1" xWindow="340" yWindow="1510" windowWidth="20570" windowHeight="10160" activeTab="1" xr2:uid="{16D05524-453C-E142-B208-76551890EC3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sensitivity Report 1" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet1!$F$7</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet1!$F$8:$F$11</definedName>
@@ -38,6 +39,7 @@
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet1!$B$19</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
@@ -60,16 +62,47 @@
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="x">Sheet1!$B$15:$B$18</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -862,7 +895,7 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.33203125" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
@@ -874,27 +907,27 @@
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
@@ -913,7 +946,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="25" t="s">
         <v>30</v>
       </c>
@@ -936,7 +969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="22" t="s">
         <v>45</v>
       </c>
@@ -959,7 +992,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="22" t="s">
         <v>47</v>
       </c>
@@ -982,7 +1015,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" s="22" t="s">
         <v>49</v>
       </c>
@@ -1005,7 +1038,7 @@
         <v>1.4999999999999682E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="23" t="s">
         <v>51</v>
       </c>
@@ -1028,12 +1061,12 @@
         <v>4.5000000000000012E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24" t="s">
@@ -1052,7 +1085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="25" t="s">
         <v>30</v>
       </c>
@@ -1075,7 +1108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="22" t="s">
         <v>53</v>
       </c>
@@ -1098,7 +1131,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="22" t="s">
         <v>55</v>
       </c>
@@ -1121,7 +1154,7 @@
         <v>14000.000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="22" t="s">
         <v>57</v>
       </c>
@@ -1144,7 +1177,7 @@
         <v>69999.999999999869</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
         <v>59</v>
       </c>
@@ -1167,7 +1200,7 @@
         <v>17181.818181818187</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="23" t="s">
         <v>61</v>
       </c>
@@ -1199,11 +1232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21D90F2-9BFD-3044-99C5-273004CD6290}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
@@ -1212,15 +1245,15 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="B4" s="20" t="s">
         <v>23</v>
@@ -1252,7 +1285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
@@ -1269,7 +1302,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1290,7 +1323,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1306,8 +1339,8 @@
       <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="9">
-        <f>MMULT(B7:E7,x)</f>
+      <c r="F7" s="9" cm="1">
+        <f t="array" ref="F7">MMULT(B7:E7,x)</f>
         <v>69999.999999999942</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -1321,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1370,7 @@
       <c r="E8" s="9">
         <v>-0.2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="9" cm="1">
         <f t="array" ref="F8:F11">MMULT(A,x)</f>
         <v>-13999.999999999989</v>
       </c>
@@ -1352,7 +1385,7 @@
         <v>13999.999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1382,7 +1415,7 @@
         <v>69999.999999999942</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1412,7 +1445,7 @@
         <v>17181.818181818133</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
@@ -1442,12 +1475,12 @@
         <v>-6.5483618527650833E-11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1455,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1471,7 +1504,7 @@
         <v>38181.818181818118</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1479,12 +1512,12 @@
         <v>31818.181818181823</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
-        <f>MMULT(obj,x)</f>
+      <c r="B19" cm="1">
+        <f t="array" ref="B19">MMULT(obj,x)</f>
         <v>6618.1818181818144</v>
       </c>
     </row>
